--- a/Running projects/Dolmen City Family Area/VO/006- Variation order for Fire Pipe 75mm --- not sent with 1st bill.xlsx
+++ b/Running projects/Dolmen City Family Area/VO/006- Variation order for Fire Pipe 75mm --- not sent with 1st bill.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8EC0A1-8F0C-4E7C-A731-AD358D03C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E03DF6-061F-4060-AF70-895DD289826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,7 +789,7 @@
   <dimension ref="A7:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="7" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>1</v>
       </c>
